--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sfrp1-Fzd2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sfrp1-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -88,10 +97,7 @@
     <t>Fzd2</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>15.8841368324595</v>
+        <v>0.41823</v>
       </c>
       <c r="H2">
-        <v>15.8841368324595</v>
+        <v>0.83646</v>
       </c>
       <c r="I2">
-        <v>0.9449901383441826</v>
+        <v>0.02275236317870147</v>
       </c>
       <c r="J2">
-        <v>0.9449901383441826</v>
+        <v>0.01562566754353302</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.105217781177898</v>
+        <v>0.1341725</v>
       </c>
       <c r="N2">
-        <v>0.105217781177898</v>
+        <v>0.268345</v>
       </c>
       <c r="O2">
-        <v>0.01393559333010025</v>
+        <v>0.01633512969336317</v>
       </c>
       <c r="P2">
-        <v>0.01393559333010025</v>
+        <v>0.01188426112752495</v>
       </c>
       <c r="Q2">
-        <v>1.671293633437513</v>
+        <v>0.056114964675</v>
       </c>
       <c r="R2">
-        <v>1.671293633437513</v>
+        <v>0.2244598587</v>
       </c>
       <c r="S2">
-        <v>0.01316899826891971</v>
+        <v>0.0003716628033545893</v>
       </c>
       <c r="T2">
-        <v>0.01316899826891971</v>
+        <v>0.0001856995133792377</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>15.8841368324595</v>
+        <v>0.41823</v>
       </c>
       <c r="H3">
-        <v>15.8841368324595</v>
+        <v>0.83646</v>
       </c>
       <c r="I3">
-        <v>0.9449901383441826</v>
+        <v>0.02275236317870147</v>
       </c>
       <c r="J3">
-        <v>0.9449901383441826</v>
+        <v>0.01562566754353302</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.46368627355349</v>
+        <v>5.923689</v>
       </c>
       <c r="N3">
-        <v>5.46368627355349</v>
+        <v>17.771067</v>
       </c>
       <c r="O3">
-        <v>0.7236391904402391</v>
+        <v>0.7211927040052828</v>
       </c>
       <c r="P3">
-        <v>0.7236391904402391</v>
+        <v>0.787031622511101</v>
       </c>
       <c r="Q3">
-        <v>86.78594037875439</v>
+        <v>2.47746445047</v>
       </c>
       <c r="R3">
-        <v>86.78594037875439</v>
+        <v>14.86478670282</v>
       </c>
       <c r="S3">
-        <v>0.6838318986853937</v>
+        <v>0.01640883832335795</v>
       </c>
       <c r="T3">
-        <v>0.6838318986853937</v>
+        <v>0.01229789447960584</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>15.8841368324595</v>
+        <v>0.41823</v>
       </c>
       <c r="H4">
-        <v>15.8841368324595</v>
+        <v>0.83646</v>
       </c>
       <c r="I4">
-        <v>0.9449901383441826</v>
+        <v>0.02275236317870147</v>
       </c>
       <c r="J4">
-        <v>0.9449901383441826</v>
+        <v>0.01562566754353302</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.149987742647476</v>
+        <v>0.007277666666666668</v>
       </c>
       <c r="N4">
-        <v>0.149987742647476</v>
+        <v>0.021833</v>
       </c>
       <c r="O4">
-        <v>0.01986516121738955</v>
+        <v>0.00088603572911786</v>
       </c>
       <c r="P4">
-        <v>0.01986516121738955</v>
+        <v>0.0009669234500260939</v>
       </c>
       <c r="Q4">
-        <v>2.38242582740423</v>
+        <v>0.00304373853</v>
       </c>
       <c r="R4">
-        <v>2.38242582740423</v>
+        <v>0.01826243118</v>
       </c>
       <c r="S4">
-        <v>0.01877238144705044</v>
+        <v>2.015940669819511E-05</v>
       </c>
       <c r="T4">
-        <v>0.01877238144705044</v>
+        <v>1.510882437015371E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>15.8841368324595</v>
+        <v>0.41823</v>
       </c>
       <c r="H5">
-        <v>15.8841368324595</v>
+        <v>0.83646</v>
       </c>
       <c r="I5">
-        <v>0.9449901383441826</v>
+        <v>0.02275236317870147</v>
       </c>
       <c r="J5">
-        <v>0.9449901383441826</v>
+        <v>0.01562566754353302</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.83139893553398</v>
+        <v>0.039371</v>
       </c>
       <c r="N5">
-        <v>1.83139893553398</v>
+        <v>0.118113</v>
       </c>
       <c r="O5">
-        <v>0.242560055012271</v>
+        <v>0.004793310038624915</v>
       </c>
       <c r="P5">
-        <v>0.242560055012271</v>
+        <v>0.005230899530661476</v>
       </c>
       <c r="Q5">
-        <v>29.09019128684241</v>
+        <v>0.01646613333</v>
       </c>
       <c r="R5">
-        <v>29.09019128684241</v>
+        <v>0.09879679997999999</v>
       </c>
       <c r="S5">
-        <v>0.2292168599428185</v>
+        <v>0.0001090591308269096</v>
       </c>
       <c r="T5">
-        <v>0.2292168599428185</v>
+        <v>8.173629701973912E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.924648982270569</v>
+        <v>0.41823</v>
       </c>
       <c r="H6">
-        <v>0.924648982270569</v>
+        <v>0.83646</v>
       </c>
       <c r="I6">
-        <v>0.05500986165581752</v>
+        <v>0.02275236317870147</v>
       </c>
       <c r="J6">
-        <v>0.05500986165581752</v>
+        <v>0.01562566754353302</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.105217781177898</v>
+        <v>0.1820473333333333</v>
       </c>
       <c r="N6">
-        <v>0.105217781177898</v>
+        <v>0.5461419999999999</v>
       </c>
       <c r="O6">
-        <v>0.01393559333010025</v>
+        <v>0.02216375785150397</v>
       </c>
       <c r="P6">
-        <v>0.01393559333010025</v>
+        <v>0.02418712530775207</v>
       </c>
       <c r="Q6">
-        <v>0.09728951428291081</v>
+        <v>0.07613765621999999</v>
       </c>
       <c r="R6">
-        <v>0.09728951428291081</v>
+        <v>0.4568259373199999</v>
       </c>
       <c r="S6">
-        <v>0.0007665950611805483</v>
+        <v>0.0005042778680422146</v>
       </c>
       <c r="T6">
-        <v>0.0007665950611805483</v>
+        <v>0.0003779399788927075</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.924648982270569</v>
+        <v>0.41823</v>
       </c>
       <c r="H7">
-        <v>0.924648982270569</v>
+        <v>0.83646</v>
       </c>
       <c r="I7">
-        <v>0.05500986165581752</v>
+        <v>0.02275236317870147</v>
       </c>
       <c r="J7">
-        <v>0.05500986165581752</v>
+        <v>0.01562566754353302</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.46368627355349</v>
+        <v>1.927182</v>
       </c>
       <c r="N7">
-        <v>5.46368627355349</v>
+        <v>3.854364</v>
       </c>
       <c r="O7">
-        <v>0.7236391904402391</v>
+        <v>0.2346290626821072</v>
       </c>
       <c r="P7">
-        <v>0.7236391904402391</v>
+        <v>0.1706991680729343</v>
       </c>
       <c r="Q7">
-        <v>5.051991952286913</v>
+        <v>0.80600532786</v>
       </c>
       <c r="R7">
-        <v>5.051991952286913</v>
+        <v>3.22402131144</v>
       </c>
       <c r="S7">
-        <v>0.03980729175484534</v>
+        <v>0.005338365646421614</v>
       </c>
       <c r="T7">
-        <v>0.03980729175484534</v>
+        <v>0.002667288450265337</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.924648982270569</v>
+        <v>16.41374433333333</v>
       </c>
       <c r="H8">
-        <v>0.924648982270569</v>
+        <v>49.24123299999999</v>
       </c>
       <c r="I8">
-        <v>0.05500986165581752</v>
+        <v>0.8929332477209986</v>
       </c>
       <c r="J8">
-        <v>0.05500986165581752</v>
+        <v>0.9198612441618808</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.149987742647476</v>
+        <v>0.1341725</v>
       </c>
       <c r="N8">
-        <v>0.149987742647476</v>
+        <v>0.268345</v>
       </c>
       <c r="O8">
-        <v>0.01986516121738955</v>
+        <v>0.01633512969336317</v>
       </c>
       <c r="P8">
-        <v>0.01986516121738955</v>
+        <v>0.01188426112752495</v>
       </c>
       <c r="Q8">
-        <v>0.1386860135920487</v>
+        <v>2.202273111564166</v>
       </c>
       <c r="R8">
-        <v>0.1386860135920487</v>
+        <v>13.213638669385</v>
       </c>
       <c r="S8">
-        <v>0.001092779770339111</v>
+        <v>0.0145861804090385</v>
       </c>
       <c r="T8">
-        <v>0.001092779770339111</v>
+        <v>0.01093187122670977</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +962,1425 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.924648982270569</v>
+        <v>16.41374433333333</v>
       </c>
       <c r="H9">
-        <v>0.924648982270569</v>
+        <v>49.24123299999999</v>
       </c>
       <c r="I9">
-        <v>0.05500986165581752</v>
+        <v>0.8929332477209986</v>
       </c>
       <c r="J9">
-        <v>0.05500986165581752</v>
+        <v>0.9198612441618808</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.83139893553398</v>
+        <v>5.923689</v>
       </c>
       <c r="N9">
-        <v>1.83139893553398</v>
+        <v>17.771067</v>
       </c>
       <c r="O9">
-        <v>0.242560055012271</v>
+        <v>0.7211927040052828</v>
       </c>
       <c r="P9">
-        <v>0.242560055012271</v>
+        <v>0.787031622511101</v>
       </c>
       <c r="Q9">
-        <v>1.693401161872898</v>
+        <v>97.22991675617899</v>
       </c>
       <c r="R9">
-        <v>1.693401161872898</v>
+        <v>875.069250805611</v>
       </c>
       <c r="S9">
-        <v>0.01334319506945252</v>
+        <v>0.643976943420126</v>
       </c>
       <c r="T9">
-        <v>0.01334319506945252</v>
+        <v>0.723959887477805</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>16.41374433333333</v>
+      </c>
+      <c r="H10">
+        <v>49.24123299999999</v>
+      </c>
+      <c r="I10">
+        <v>0.8929332477209986</v>
+      </c>
+      <c r="J10">
+        <v>0.9198612441618808</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.007277666666666668</v>
+      </c>
+      <c r="N10">
+        <v>0.021833</v>
+      </c>
+      <c r="O10">
+        <v>0.00088603572911786</v>
+      </c>
+      <c r="P10">
+        <v>0.0009669234500260939</v>
+      </c>
+      <c r="Q10">
+        <v>0.1194537600098889</v>
+      </c>
+      <c r="R10">
+        <v>1.075083840089</v>
+      </c>
+      <c r="S10">
+        <v>0.0007911707611980537</v>
+      </c>
+      <c r="T10">
+        <v>0.0008894354077503009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>16.41374433333333</v>
+      </c>
+      <c r="H11">
+        <v>49.24123299999999</v>
+      </c>
+      <c r="I11">
+        <v>0.8929332477209986</v>
+      </c>
+      <c r="J11">
+        <v>0.9198612441618808</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.039371</v>
+      </c>
+      <c r="N11">
+        <v>0.118113</v>
+      </c>
+      <c r="O11">
+        <v>0.004793310038624915</v>
+      </c>
+      <c r="P11">
+        <v>0.005230899530661476</v>
+      </c>
+      <c r="Q11">
+        <v>0.6462255281476664</v>
+      </c>
+      <c r="R11">
+        <v>5.816029753329</v>
+      </c>
+      <c r="S11">
+        <v>0.004280105900123011</v>
+      </c>
+      <c r="T11">
+        <v>0.004811701750360064</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>16.41374433333333</v>
+      </c>
+      <c r="H12">
+        <v>49.24123299999999</v>
+      </c>
+      <c r="I12">
+        <v>0.8929332477209986</v>
+      </c>
+      <c r="J12">
+        <v>0.9198612441618808</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.1820473333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.5461419999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.02216375785150397</v>
+      </c>
+      <c r="P12">
+        <v>0.02418712530775207</v>
+      </c>
+      <c r="Q12">
+        <v>2.988078385898444</v>
+      </c>
+      <c r="R12">
+        <v>26.89270547308599</v>
+      </c>
+      <c r="S12">
+        <v>0.01979075628004522</v>
+      </c>
+      <c r="T12">
+        <v>0.02224879917828813</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>16.41374433333333</v>
+      </c>
+      <c r="H13">
+        <v>49.24123299999999</v>
+      </c>
+      <c r="I13">
+        <v>0.8929332477209986</v>
+      </c>
+      <c r="J13">
+        <v>0.9198612441618808</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.927182</v>
+      </c>
+      <c r="N13">
+        <v>3.854364</v>
+      </c>
+      <c r="O13">
+        <v>0.2346290626821072</v>
+      </c>
+      <c r="P13">
+        <v>0.1706991680729343</v>
+      </c>
+      <c r="Q13">
+        <v>31.63227263180199</v>
+      </c>
+      <c r="R13">
+        <v>189.793635790812</v>
+      </c>
+      <c r="S13">
+        <v>0.2095080909504677</v>
+      </c>
+      <c r="T13">
+        <v>0.1570195491209674</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.09070299999999999</v>
+      </c>
+      <c r="H14">
+        <v>0.272109</v>
+      </c>
+      <c r="I14">
+        <v>0.004934384423398034</v>
+      </c>
+      <c r="J14">
+        <v>0.005083189596159081</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.1341725</v>
+      </c>
+      <c r="N14">
+        <v>0.268345</v>
+      </c>
+      <c r="O14">
+        <v>0.01633512969336317</v>
+      </c>
+      <c r="P14">
+        <v>0.01188426112752495</v>
+      </c>
+      <c r="Q14">
+        <v>0.0121698482675</v>
+      </c>
+      <c r="R14">
+        <v>0.073019089605</v>
+      </c>
+      <c r="S14">
+        <v>8.060380951311794E-05</v>
+      </c>
+      <c r="T14">
+        <v>6.040995252147261E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.09070299999999999</v>
+      </c>
+      <c r="H15">
+        <v>0.272109</v>
+      </c>
+      <c r="I15">
+        <v>0.004934384423398034</v>
+      </c>
+      <c r="J15">
+        <v>0.005083189596159081</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.923689</v>
+      </c>
+      <c r="N15">
+        <v>17.771067</v>
+      </c>
+      <c r="O15">
+        <v>0.7211927040052828</v>
+      </c>
+      <c r="P15">
+        <v>0.787031622511101</v>
+      </c>
+      <c r="Q15">
+        <v>0.537296363367</v>
+      </c>
+      <c r="R15">
+        <v>4.835667270303</v>
+      </c>
+      <c r="S15">
+        <v>0.003558642044911976</v>
+      </c>
+      <c r="T15">
+        <v>0.004000630955396631</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.09070299999999999</v>
+      </c>
+      <c r="H16">
+        <v>0.272109</v>
+      </c>
+      <c r="I16">
+        <v>0.004934384423398034</v>
+      </c>
+      <c r="J16">
+        <v>0.005083189596159081</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.007277666666666668</v>
+      </c>
+      <c r="N16">
+        <v>0.021833</v>
+      </c>
+      <c r="O16">
+        <v>0.00088603572911786</v>
+      </c>
+      <c r="P16">
+        <v>0.0009669234500260939</v>
+      </c>
+      <c r="Q16">
+        <v>0.0006601061996666667</v>
+      </c>
+      <c r="R16">
+        <v>0.005940955797</v>
+      </c>
+      <c r="S16">
+        <v>4.372040900333288E-06</v>
+      </c>
+      <c r="T16">
+        <v>4.915055221454886E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.09070299999999999</v>
+      </c>
+      <c r="H17">
+        <v>0.272109</v>
+      </c>
+      <c r="I17">
+        <v>0.004934384423398034</v>
+      </c>
+      <c r="J17">
+        <v>0.005083189596159081</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.039371</v>
+      </c>
+      <c r="N17">
+        <v>0.118113</v>
+      </c>
+      <c r="O17">
+        <v>0.004793310038624915</v>
+      </c>
+      <c r="P17">
+        <v>0.005230899530661476</v>
+      </c>
+      <c r="Q17">
+        <v>0.003571067812999999</v>
+      </c>
+      <c r="R17">
+        <v>0.03213961031699999</v>
+      </c>
+      <c r="S17">
+        <v>2.365203439110821E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.658965407281184E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.09070299999999999</v>
+      </c>
+      <c r="H18">
+        <v>0.272109</v>
+      </c>
+      <c r="I18">
+        <v>0.004934384423398034</v>
+      </c>
+      <c r="J18">
+        <v>0.005083189596159081</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.1820473333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.5461419999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.02216375785150397</v>
+      </c>
+      <c r="P18">
+        <v>0.02418712530775207</v>
+      </c>
+      <c r="Q18">
+        <v>0.01651223927533333</v>
+      </c>
+      <c r="R18">
+        <v>0.148610153478</v>
+      </c>
+      <c r="S18">
+        <v>0.0001093645015064271</v>
+      </c>
+      <c r="T18">
+        <v>0.0001229477437253613</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.09070299999999999</v>
+      </c>
+      <c r="H19">
+        <v>0.272109</v>
+      </c>
+      <c r="I19">
+        <v>0.004934384423398034</v>
+      </c>
+      <c r="J19">
+        <v>0.005083189596159081</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.927182</v>
+      </c>
+      <c r="N19">
+        <v>3.854364</v>
+      </c>
+      <c r="O19">
+        <v>0.2346290626821072</v>
+      </c>
+      <c r="P19">
+        <v>0.1706991680729343</v>
+      </c>
+      <c r="Q19">
+        <v>0.174801188946</v>
+      </c>
+      <c r="R19">
+        <v>1.048807133676</v>
+      </c>
+      <c r="S19">
+        <v>0.00115774999217507</v>
+      </c>
+      <c r="T19">
+        <v>0.0008676962352213503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.263052</v>
+      </c>
+      <c r="H20">
+        <v>0.789156</v>
+      </c>
+      <c r="I20">
+        <v>0.01431043836856223</v>
+      </c>
+      <c r="J20">
+        <v>0.01474199518923121</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.1341725</v>
+      </c>
+      <c r="N20">
+        <v>0.268345</v>
+      </c>
+      <c r="O20">
+        <v>0.01633512969336317</v>
+      </c>
+      <c r="P20">
+        <v>0.01188426112752495</v>
+      </c>
+      <c r="Q20">
+        <v>0.03529434447</v>
+      </c>
+      <c r="R20">
+        <v>0.21176606682</v>
+      </c>
+      <c r="S20">
+        <v>0.0002337628667193445</v>
+      </c>
+      <c r="T20">
+        <v>0.0001751977203695403</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.263052</v>
+      </c>
+      <c r="H21">
+        <v>0.789156</v>
+      </c>
+      <c r="I21">
+        <v>0.01431043836856223</v>
+      </c>
+      <c r="J21">
+        <v>0.01474199518923121</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.923689</v>
+      </c>
+      <c r="N21">
+        <v>17.771067</v>
+      </c>
+      <c r="O21">
+        <v>0.7211927040052828</v>
+      </c>
+      <c r="P21">
+        <v>0.787031622511101</v>
+      </c>
+      <c r="Q21">
+        <v>1.558238238828</v>
+      </c>
+      <c r="R21">
+        <v>14.024144149452</v>
+      </c>
+      <c r="S21">
+        <v>0.01032058374252434</v>
+      </c>
+      <c r="T21">
+        <v>0.01160241639283149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.263052</v>
+      </c>
+      <c r="H22">
+        <v>0.789156</v>
+      </c>
+      <c r="I22">
+        <v>0.01431043836856223</v>
+      </c>
+      <c r="J22">
+        <v>0.01474199518923121</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.007277666666666668</v>
+      </c>
+      <c r="N22">
+        <v>0.021833</v>
+      </c>
+      <c r="O22">
+        <v>0.00088603572911786</v>
+      </c>
+      <c r="P22">
+        <v>0.0009669234500260939</v>
+      </c>
+      <c r="Q22">
+        <v>0.001914404772</v>
+      </c>
+      <c r="R22">
+        <v>0.017229642948</v>
+      </c>
+      <c r="S22">
+        <v>1.267955969388523E-05</v>
+      </c>
+      <c r="T22">
+        <v>1.425438084863952E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.263052</v>
+      </c>
+      <c r="H23">
+        <v>0.789156</v>
+      </c>
+      <c r="I23">
+        <v>0.01431043836856223</v>
+      </c>
+      <c r="J23">
+        <v>0.01474199518923121</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.039371</v>
+      </c>
+      <c r="N23">
+        <v>0.118113</v>
+      </c>
+      <c r="O23">
+        <v>0.004793310038624915</v>
+      </c>
+      <c r="P23">
+        <v>0.005230899530661476</v>
+      </c>
+      <c r="Q23">
+        <v>0.010356620292</v>
+      </c>
+      <c r="R23">
+        <v>0.093209582628</v>
+      </c>
+      <c r="S23">
+        <v>6.859436788915248E-05</v>
+      </c>
+      <c r="T23">
+        <v>7.71138957163633E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.263052</v>
+      </c>
+      <c r="H24">
+        <v>0.789156</v>
+      </c>
+      <c r="I24">
+        <v>0.01431043836856223</v>
+      </c>
+      <c r="J24">
+        <v>0.01474199518923121</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.1820473333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.5461419999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.02216375785150397</v>
+      </c>
+      <c r="P24">
+        <v>0.02418712530775207</v>
+      </c>
+      <c r="Q24">
+        <v>0.047887915128</v>
+      </c>
+      <c r="R24">
+        <v>0.4309912361519999</v>
+      </c>
+      <c r="S24">
+        <v>0.0003171730907496848</v>
+      </c>
+      <c r="T24">
+        <v>0.0003565664849282135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.263052</v>
+      </c>
+      <c r="H25">
+        <v>0.789156</v>
+      </c>
+      <c r="I25">
+        <v>0.01431043836856223</v>
+      </c>
+      <c r="J25">
+        <v>0.01474199518923121</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.927182</v>
+      </c>
+      <c r="N25">
+        <v>3.854364</v>
+      </c>
+      <c r="O25">
+        <v>0.2346290626821072</v>
+      </c>
+      <c r="P25">
+        <v>0.1706991680729343</v>
+      </c>
+      <c r="Q25">
+        <v>0.506949079464</v>
+      </c>
+      <c r="R25">
+        <v>3.041694476784</v>
+      </c>
+      <c r="S25">
+        <v>0.003357644740985819</v>
+      </c>
+      <c r="T25">
+        <v>0.002516446314536968</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.1960975</v>
+      </c>
+      <c r="H26">
+        <v>2.392195</v>
+      </c>
+      <c r="I26">
+        <v>0.06506956630833964</v>
+      </c>
+      <c r="J26">
+        <v>0.04468790350919585</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.1341725</v>
+      </c>
+      <c r="N26">
+        <v>0.268345</v>
+      </c>
+      <c r="O26">
+        <v>0.01633512969336317</v>
+      </c>
+      <c r="P26">
+        <v>0.01188426112752495</v>
+      </c>
+      <c r="Q26">
+        <v>0.16048339181875</v>
+      </c>
+      <c r="R26">
+        <v>0.6419335672750001</v>
+      </c>
+      <c r="S26">
+        <v>0.001062919804737623</v>
+      </c>
+      <c r="T26">
+        <v>0.0005310827145449219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.1960975</v>
+      </c>
+      <c r="H27">
+        <v>2.392195</v>
+      </c>
+      <c r="I27">
+        <v>0.06506956630833964</v>
+      </c>
+      <c r="J27">
+        <v>0.04468790350919585</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>5.923689</v>
+      </c>
+      <c r="N27">
+        <v>17.771067</v>
+      </c>
+      <c r="O27">
+        <v>0.7211927040052828</v>
+      </c>
+      <c r="P27">
+        <v>0.787031622511101</v>
+      </c>
+      <c r="Q27">
+        <v>7.085309603677501</v>
+      </c>
+      <c r="R27">
+        <v>42.51185762206501</v>
+      </c>
+      <c r="S27">
+        <v>0.04692769647436251</v>
+      </c>
+      <c r="T27">
+        <v>0.03517079320546194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.1960975</v>
+      </c>
+      <c r="H28">
+        <v>2.392195</v>
+      </c>
+      <c r="I28">
+        <v>0.06506956630833964</v>
+      </c>
+      <c r="J28">
+        <v>0.04468790350919585</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.007277666666666668</v>
+      </c>
+      <c r="N28">
+        <v>0.021833</v>
+      </c>
+      <c r="O28">
+        <v>0.00088603572911786</v>
+      </c>
+      <c r="P28">
+        <v>0.0009669234500260939</v>
+      </c>
+      <c r="Q28">
+        <v>0.008704798905833335</v>
+      </c>
+      <c r="R28">
+        <v>0.052228793435</v>
+      </c>
+      <c r="S28">
+        <v>5.765396062739265E-05</v>
+      </c>
+      <c r="T28">
+        <v>4.320978183554484E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.1960975</v>
+      </c>
+      <c r="H29">
+        <v>2.392195</v>
+      </c>
+      <c r="I29">
+        <v>0.06506956630833964</v>
+      </c>
+      <c r="J29">
+        <v>0.04468790350919585</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.039371</v>
+      </c>
+      <c r="N29">
+        <v>0.118113</v>
+      </c>
+      <c r="O29">
+        <v>0.004793310038624915</v>
+      </c>
+      <c r="P29">
+        <v>0.005230899530661476</v>
+      </c>
+      <c r="Q29">
+        <v>0.04709155467249999</v>
+      </c>
+      <c r="R29">
+        <v>0.282549328035</v>
+      </c>
+      <c r="S29">
+        <v>0.000311898605394734</v>
+      </c>
+      <c r="T29">
+        <v>0.0002337579334924979</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.1960975</v>
+      </c>
+      <c r="H30">
+        <v>2.392195</v>
+      </c>
+      <c r="I30">
+        <v>0.06506956630833964</v>
+      </c>
+      <c r="J30">
+        <v>0.04468790350919585</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.1820473333333333</v>
+      </c>
+      <c r="N30">
+        <v>0.5461419999999999</v>
+      </c>
+      <c r="O30">
+        <v>0.02216375785150397</v>
+      </c>
+      <c r="P30">
+        <v>0.02418712530775207</v>
+      </c>
+      <c r="Q30">
+        <v>0.2177463602816666</v>
+      </c>
+      <c r="R30">
+        <v>1.30647816169</v>
+      </c>
+      <c r="S30">
+        <v>0.001442186111160421</v>
+      </c>
+      <c r="T30">
+        <v>0.001080871921917654</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.1960975</v>
+      </c>
+      <c r="H31">
+        <v>2.392195</v>
+      </c>
+      <c r="I31">
+        <v>0.06506956630833964</v>
+      </c>
+      <c r="J31">
+        <v>0.04468790350919585</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.927182</v>
+      </c>
+      <c r="N31">
+        <v>3.854364</v>
+      </c>
+      <c r="O31">
+        <v>0.2346290626821072</v>
+      </c>
+      <c r="P31">
+        <v>0.1706991680729343</v>
+      </c>
+      <c r="Q31">
+        <v>2.305097572245</v>
+      </c>
+      <c r="R31">
+        <v>9.220390288980001</v>
+      </c>
+      <c r="S31">
+        <v>0.01526721135205695</v>
+      </c>
+      <c r="T31">
+        <v>0.007628187951943295</v>
       </c>
     </row>
   </sheetData>
